--- a/database/seeds/copd.xlsx
+++ b/database/seeds/copd.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zfowler\Box\Attic Project Folders\UNMC mHealth\Materials from Client\Educatioonal Content\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amahamed\Projects\unmc-mhealth\database\seeds\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -850,9 +850,6 @@
     <t>Thigh</t>
   </si>
   <si>
-    <t>HINTS - Health Information Tips</t>
-  </si>
-  <si>
     <t>HINT #</t>
   </si>
   <si>
@@ -860,6 +857,9 @@
   </si>
   <si>
     <t>COPD</t>
+  </si>
+  <si>
+    <t>CONTENT</t>
   </si>
 </sst>
 </file>
@@ -1234,8 +1234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="B135" sqref="B135"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1252,13 +1252,13 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -1284,7 +1284,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1328,7 +1328,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -1372,7 +1372,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B12">
         <v>3</v>
@@ -1416,7 +1416,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -1460,7 +1460,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B22">
         <v>5</v>
@@ -1507,7 +1507,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B27">
         <v>6</v>
@@ -1551,7 +1551,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B32">
         <v>7</v>
@@ -1598,7 +1598,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B37">
         <v>8</v>
@@ -1642,7 +1642,7 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B42">
         <v>9</v>
@@ -1698,7 +1698,7 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B47">
         <v>10</v>
@@ -1745,7 +1745,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B52">
         <v>11</v>
@@ -1789,7 +1789,7 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B57">
         <v>12</v>
@@ -1828,7 +1828,7 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B61">
         <v>13</v>
@@ -1872,7 +1872,7 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B66">
         <v>14</v>
@@ -1916,7 +1916,7 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B71">
         <v>15</v>
@@ -1954,7 +1954,7 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B76">
         <v>16</v>
@@ -1998,7 +1998,7 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B81">
         <v>17</v>
@@ -2045,7 +2045,7 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B86">
         <v>18</v>
@@ -2089,7 +2089,7 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B91">
         <v>19</v>
@@ -2133,7 +2133,7 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B96">
         <v>20</v>
@@ -2180,7 +2180,7 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B101">
         <v>21</v>
@@ -2222,7 +2222,7 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B105">
         <v>22</v>
@@ -2266,7 +2266,7 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B110">
         <v>23</v>
@@ -2313,7 +2313,7 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B115">
         <v>24</v>
@@ -2357,7 +2357,7 @@
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B120">
         <v>25</v>
@@ -2395,7 +2395,7 @@
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B125">
         <v>26</v>
@@ -2439,7 +2439,7 @@
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B130">
         <v>27</v>
@@ -2483,7 +2483,7 @@
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B135">
         <v>28</v>
